--- a/Planning/Roles.xlsx
+++ b/Planning/Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Bootcamp\UCB_COVID_Prediction_Model\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F477AC2C-7929-41AB-947E-07A39ABEC262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB960F-33FB-4651-9DCF-62CFCEB34C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,16 +69,16 @@
     <t>Github Administrator</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
     <t>Tableau</t>
   </si>
   <si>
-    <t>Technology selection, manage and support</t>
+    <t>Technology selection, machine learning and support</t>
+  </si>
+  <si>
+    <t>Triangle, X</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,10 +457,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/Planning/Roles.xlsx
+++ b/Planning/Roles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Bootcamp\UCB_COVID_Prediction_Model\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB960F-33FB-4651-9DCF-62CFCEB34C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC24B82-DB53-47AF-BAA0-2E3572DCC40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,13 +72,13 @@
     <t>Presentation</t>
   </si>
   <si>
-    <t>Tableau</t>
-  </si>
-  <si>
     <t>Technology selection, machine learning and support</t>
   </si>
   <si>
     <t>Triangle, X</t>
+  </si>
+  <si>
+    <t>Tableau and README</t>
   </si>
 </sst>
 </file>
@@ -399,13 +399,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -435,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -460,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
